--- a/VSM 3.0设计文档.xlsx
+++ b/VSM 3.0设计文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>模块</t>
   </si>
@@ -164,7 +164,10 @@
     <t>Create EC Pool</t>
   </si>
   <si>
-    <t>Crushmap</t>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>Crushmap(Storage group)</t>
   </si>
   <si>
     <t>Monitor
@@ -189,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -210,6 +213,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -217,46 +257,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +295,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -278,9 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,43 +343,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -363,31 +366,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,151 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +557,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,26 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,8 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,9 +640,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,145 +677,148 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1128,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1361,65 +1367,71 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" ht="54" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" ht="54" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
